--- a/data/trans_bre/P43_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P43_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,57</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,13</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>142,6%</t>
+          <t>4,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>84,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>277,8%</t>
+          <t>-12,49%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>122,88%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>182,36%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-51,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 32,13</t>
+          <t>-2,67; 6,79</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 16,48</t>
+          <t>-4,91; 3,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 12,23</t>
+          <t>-3,75; 3,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 42,36</t>
+          <t>-1,25; 12,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-43,81; 1101,04</t>
+          <t>-0,4; 11,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 311,88</t>
+          <t>-13,43; 1,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 520,12</t>
+          <t>-77,09; 977,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1961,43</t>
+          <t>-74,2; 232,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-85,01; 576,56</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-38,23; 804,44</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-84,1; 30,11</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,19</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>1,79</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-0,07%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,98%</t>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-24,15%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-21,73%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-24,4%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 13,14</t>
+          <t>-3,65; 7,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 10,05</t>
+          <t>-6,11; 5,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 7,81</t>
+          <t>-12,35; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 7,38</t>
+          <t>-18,77; 5,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,65; 248,43</t>
+          <t>-9,38; 3,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,3; 115,93</t>
+          <t>-5,55; 8,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,32; 89,38</t>
+          <t>-43,12; 216,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,49; 98,77</t>
+          <t>-49,01; 81,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-65,27; 48,33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-78,2; 82,27</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,37; 72,53</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,91; 174,6</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>66,83%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,18%</t>
+          <t>31,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,56%</t>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-5,38%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-11,85%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>62,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,41</t>
+          <t>-2,75; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 8,4</t>
+          <t>-4,8; 4,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 7,98</t>
+          <t>-5,63; 3,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 10,42</t>
+          <t>-6,6; 4,23</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 200,29</t>
+          <t>-6,95; 5,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,94; 117,49</t>
+          <t>-3,06; 10,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-27,7; 112,41</t>
+          <t>-25,81; 131,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,15; 110,16</t>
+          <t>-43,52; 77,41</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-45,48; 59,1</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-45,88; 60,28</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-49,71; 66,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-29,01; 216,87</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>144,88%</t>
+          <t>-20,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,98%</t>
+          <t>14,35%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>75,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11,86%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 10,39</t>
+          <t>-10,98; 3,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 15,29</t>
+          <t>-3,68; 7,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 21,66</t>
+          <t>1,31; 11,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 14,67</t>
+          <t>-6,97; 8,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 73,66</t>
+          <t>-6,04; 6,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 134,88</t>
+          <t>-8,76; 4,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>58,24; 278,0</t>
+          <t>-55,27; 32,01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,75; 116,07</t>
+          <t>-23,82; 74,9</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>8,73; 173,92</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,48; 76,4</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-39,8; 83,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-51,46; 50,87</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,57</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,99</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>-3,24</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,25%</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>47,87%</t>
+          <t>-10,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-16,01%</t>
+          <t>9,22%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-26,74%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-27,45%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 24,03</t>
+          <t>-6,8; 4,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 18,34</t>
+          <t>-4,41; 5,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 22,26</t>
+          <t>-3,83; 6,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 10,8</t>
+          <t>-4,74; 8,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 146,53</t>
+          <t>-10,01; 2,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 133,47</t>
+          <t>-9,05; 2,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 161,29</t>
+          <t>-53,01; 69,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-50,88; 60,21</t>
+          <t>-38,85; 84,66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-36,02; 97,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-34,58; 93,2</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-59,16; 34,5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-62,86; 39,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>42,78</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>49,48</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-2,83%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-67,64%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>29,63%</t>
         </is>
       </c>
     </row>
@@ -1168,40 +1420,60 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,89; 0,0</t>
+          <t>-3,37; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 79,76</t>
+          <t>0,42; 3,86</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,17; 86,41</t>
+          <t>0,13; 3,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,0; 54,07</t>
+          <t>-5,96; 0,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>-3,23; 2,94</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 3,27</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="J15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
+      <c r="K15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,25</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,17%</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>46,95%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>4,24%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-1,75%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-7,58%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-8,23%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,98; 9,88</t>
+          <t>-2,03; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,74</t>
+          <t>-1,69; 2,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,35</t>
+          <t>-1,38; 2,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 7,22</t>
+          <t>-3,05; 2,63</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,75; 82,19</t>
+          <t>-3,01; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,04; 76,86</t>
+          <t>-3,51; 1,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,87; 92,91</t>
+          <t>-24,5; 38,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 56,1</t>
+          <t>-19,02; 32,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 47,6</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-26,33; 32,98</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-32,01; 24,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-32,07; 24,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
